--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H2">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I2">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J2">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.619011</v>
+        <v>1.169087</v>
       </c>
       <c r="N2">
-        <v>1.857033</v>
+        <v>3.507261</v>
       </c>
       <c r="O2">
-        <v>0.07160816155038593</v>
+        <v>0.1172220384160875</v>
       </c>
       <c r="P2">
-        <v>0.07160816155038593</v>
+        <v>0.1172220384160875</v>
       </c>
       <c r="Q2">
-        <v>0.108928397355</v>
+        <v>0.3360653593243333</v>
       </c>
       <c r="R2">
-        <v>0.980355576195</v>
+        <v>3.024588233919</v>
       </c>
       <c r="S2">
-        <v>0.005185559974418851</v>
+        <v>0.01325851650559342</v>
       </c>
       <c r="T2">
-        <v>0.005185559974418852</v>
+        <v>0.01325851650559342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H3">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I3">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J3">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.426697</v>
       </c>
       <c r="O3">
-        <v>0.7491035739087015</v>
+        <v>0.6492921462165751</v>
       </c>
       <c r="P3">
-        <v>0.7491035739087014</v>
+        <v>0.6492921462165752</v>
       </c>
       <c r="Q3">
-        <v>1.139516082972778</v>
+        <v>1.861463948018111</v>
       </c>
       <c r="R3">
-        <v>10.255644746755</v>
+        <v>16.753175532163</v>
       </c>
       <c r="S3">
-        <v>0.05424691020480668</v>
+        <v>0.07343884097124852</v>
       </c>
       <c r="T3">
-        <v>0.05424691020480669</v>
+        <v>0.07343884097124853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H4">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I4">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J4">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.527136</v>
+        <v>1.009546333333333</v>
       </c>
       <c r="N4">
-        <v>1.581408</v>
+        <v>3.028639</v>
       </c>
       <c r="O4">
-        <v>0.0609799177187873</v>
+        <v>0.1012252116983768</v>
       </c>
       <c r="P4">
-        <v>0.0609799177187873</v>
+        <v>0.1012252116983768</v>
       </c>
       <c r="Q4">
-        <v>0.09276100048000001</v>
+        <v>0.2902038524645556</v>
       </c>
       <c r="R4">
-        <v>0.8348490043200001</v>
+        <v>2.611834672181</v>
       </c>
       <c r="S4">
-        <v>0.004415907540698398</v>
+        <v>0.01144917933709066</v>
       </c>
       <c r="T4">
-        <v>0.004415907540698399</v>
+        <v>0.01144917933709066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H5">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I5">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J5">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6108233333333333</v>
+        <v>0.747759</v>
       </c>
       <c r="N5">
-        <v>1.83247</v>
+        <v>2.243277</v>
       </c>
       <c r="O5">
-        <v>0.07066099945247915</v>
+        <v>0.07497631418703242</v>
       </c>
       <c r="P5">
-        <v>0.07066099945247914</v>
+        <v>0.07497631418703242</v>
       </c>
       <c r="Q5">
-        <v>0.1074876000055555</v>
+        <v>0.214950552887</v>
       </c>
       <c r="R5">
-        <v>0.9673884000499999</v>
+        <v>1.934554975983</v>
       </c>
       <c r="S5">
-        <v>0.005116970504198532</v>
+        <v>0.008480271394435168</v>
       </c>
       <c r="T5">
-        <v>0.005116970504198532</v>
+        <v>0.008480271394435168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1759716666666667</v>
+        <v>0.2874596666666667</v>
       </c>
       <c r="H6">
-        <v>0.527915</v>
+        <v>0.862379</v>
       </c>
       <c r="I6">
-        <v>0.07241576745089476</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="J6">
-        <v>0.07241576745089477</v>
+        <v>0.113106005361649</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4118836666666666</v>
+        <v>0.5713116666666667</v>
       </c>
       <c r="N6">
-        <v>1.235651</v>
+        <v>1.713935</v>
       </c>
       <c r="O6">
-        <v>0.04764734736964606</v>
+        <v>0.05728428948192819</v>
       </c>
       <c r="P6">
-        <v>0.04764734736964606</v>
+        <v>0.05728428948192819</v>
       </c>
       <c r="Q6">
-        <v>0.0724798552961111</v>
+        <v>0.1642290612627778</v>
       </c>
       <c r="R6">
-        <v>0.6523186976649999</v>
+        <v>1.478061551365</v>
       </c>
       <c r="S6">
-        <v>0.003450419226772291</v>
+        <v>0.006479197153281222</v>
       </c>
       <c r="T6">
-        <v>0.003450419226772292</v>
+        <v>0.006479197153281223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H7">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I7">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J7">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.619011</v>
+        <v>1.169087</v>
       </c>
       <c r="N7">
-        <v>1.857033</v>
+        <v>3.507261</v>
       </c>
       <c r="O7">
-        <v>0.07160816155038593</v>
+        <v>0.1172220384160875</v>
       </c>
       <c r="P7">
-        <v>0.07160816155038593</v>
+        <v>0.1172220384160875</v>
       </c>
       <c r="Q7">
-        <v>1.377874948893</v>
+        <v>2.602305436214333</v>
       </c>
       <c r="R7">
-        <v>12.400874540037</v>
+        <v>23.420748925929</v>
       </c>
       <c r="S7">
-        <v>0.06559403569895624</v>
+        <v>0.10266666474644</v>
       </c>
       <c r="T7">
-        <v>0.06559403569895625</v>
+        <v>0.10266666474644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H8">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I8">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J8">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>19.426697</v>
       </c>
       <c r="O8">
-        <v>0.7491035739087015</v>
+        <v>0.6492921462165751</v>
       </c>
       <c r="P8">
-        <v>0.7491035739087014</v>
+        <v>0.6492921462165752</v>
       </c>
       <c r="Q8">
         <v>14.41415372588144</v>
       </c>
       <c r="R8">
-        <v>129.7273835329329</v>
+        <v>129.727383532933</v>
       </c>
       <c r="S8">
-        <v>0.6861889134607764</v>
+        <v>0.5686700214297341</v>
       </c>
       <c r="T8">
-        <v>0.6861889134607764</v>
+        <v>0.5686700214297342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H9">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I9">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J9">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.527136</v>
+        <v>1.009546333333333</v>
       </c>
       <c r="N9">
-        <v>1.581408</v>
+        <v>3.028639</v>
       </c>
       <c r="O9">
-        <v>0.0609799177187873</v>
+        <v>0.1012252116983768</v>
       </c>
       <c r="P9">
-        <v>0.0609799177187873</v>
+        <v>0.1012252116983768</v>
       </c>
       <c r="Q9">
-        <v>1.173367660768</v>
+        <v>2.247179133241223</v>
       </c>
       <c r="R9">
-        <v>10.560308946912</v>
+        <v>20.224612199171</v>
       </c>
       <c r="S9">
-        <v>0.05585842190559619</v>
+        <v>0.08865615215149178</v>
       </c>
       <c r="T9">
-        <v>0.05585842190559619</v>
+        <v>0.08865615215149179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H10">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I10">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J10">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6108233333333333</v>
+        <v>0.747759</v>
       </c>
       <c r="N10">
-        <v>1.83247</v>
+        <v>2.243277</v>
       </c>
       <c r="O10">
-        <v>0.07066099945247915</v>
+        <v>0.07497631418703242</v>
       </c>
       <c r="P10">
-        <v>0.07066099945247914</v>
+        <v>0.07497631418703242</v>
       </c>
       <c r="Q10">
-        <v>1.359649778758888</v>
+        <v>1.664458941617</v>
       </c>
       <c r="R10">
-        <v>12.23684800883</v>
+        <v>14.980130474553</v>
       </c>
       <c r="S10">
-        <v>0.06472642252306035</v>
+        <v>0.0656665607984121</v>
       </c>
       <c r="T10">
-        <v>0.06472642252306035</v>
+        <v>0.0656665607984121</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.225929666666666</v>
+        <v>2.225929666666667</v>
       </c>
       <c r="H11">
-        <v>6.677788999999999</v>
+        <v>6.677789</v>
       </c>
       <c r="I11">
-        <v>0.916013402366182</v>
+        <v>0.8758307408204057</v>
       </c>
       <c r="J11">
-        <v>0.9160134023661821</v>
+        <v>0.8758307408204058</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4118836666666666</v>
+        <v>0.5713116666666667</v>
       </c>
       <c r="N11">
-        <v>1.235651</v>
+        <v>1.713935</v>
       </c>
       <c r="O11">
-        <v>0.04764734736964606</v>
+        <v>0.05728428948192819</v>
       </c>
       <c r="P11">
-        <v>0.04764734736964606</v>
+        <v>0.05728428948192819</v>
       </c>
       <c r="Q11">
-        <v>0.9168240728487774</v>
+        <v>1.271699587746111</v>
       </c>
       <c r="R11">
-        <v>8.251416655638998</v>
+        <v>11.445296289715</v>
       </c>
       <c r="S11">
-        <v>0.04364560877779284</v>
+        <v>0.05017134169432774</v>
       </c>
       <c r="T11">
-        <v>0.04364560877779284</v>
+        <v>0.05017134169432774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,40 +1166,40 @@
         <v>0.084352</v>
       </c>
       <c r="I12">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J12">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.619011</v>
+        <v>1.169087</v>
       </c>
       <c r="N12">
-        <v>1.857033</v>
+        <v>3.507261</v>
       </c>
       <c r="O12">
-        <v>0.07160816155038593</v>
+        <v>0.1172220384160875</v>
       </c>
       <c r="P12">
-        <v>0.07160816155038593</v>
+        <v>0.1172220384160875</v>
       </c>
       <c r="Q12">
-        <v>0.017404938624</v>
+        <v>0.03287160887466666</v>
       </c>
       <c r="R12">
-        <v>0.156644447616</v>
+        <v>0.295844479872</v>
       </c>
       <c r="S12">
-        <v>0.0008285658770108425</v>
+        <v>0.001296857164054106</v>
       </c>
       <c r="T12">
-        <v>0.0008285658770108425</v>
+        <v>0.001296857164054106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,10 +1228,10 @@
         <v>0.084352</v>
       </c>
       <c r="I13">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J13">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>19.426697</v>
       </c>
       <c r="O13">
-        <v>0.7491035739087015</v>
+        <v>0.6492921462165751</v>
       </c>
       <c r="P13">
-        <v>0.7491035739087014</v>
+        <v>0.6492921462165752</v>
       </c>
       <c r="Q13">
         <v>0.1820756383715555</v>
@@ -1258,10 +1258,10 @@
         <v>1.638680745344</v>
       </c>
       <c r="S13">
-        <v>0.008667750243118406</v>
+        <v>0.007183283815592395</v>
       </c>
       <c r="T13">
-        <v>0.008667750243118404</v>
+        <v>0.007183283815592398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1290,10 +1290,10 @@
         <v>0.084352</v>
       </c>
       <c r="I14">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J14">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.527136</v>
+        <v>1.009546333333333</v>
       </c>
       <c r="N14">
-        <v>1.581408</v>
+        <v>3.028639</v>
       </c>
       <c r="O14">
-        <v>0.0609799177187873</v>
+        <v>0.1012252116983768</v>
       </c>
       <c r="P14">
-        <v>0.0609799177187873</v>
+        <v>0.1012252116983768</v>
       </c>
       <c r="Q14">
-        <v>0.014821658624</v>
+        <v>0.02838575076977778</v>
       </c>
       <c r="R14">
-        <v>0.133394927616</v>
+        <v>0.255471756928</v>
       </c>
       <c r="S14">
-        <v>0.0007055882724927143</v>
+        <v>0.001119880209794385</v>
       </c>
       <c r="T14">
-        <v>0.0007055882724927142</v>
+        <v>0.001119880209794385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1352,10 +1352,10 @@
         <v>0.084352</v>
       </c>
       <c r="I15">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J15">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6108233333333333</v>
+        <v>0.747759</v>
       </c>
       <c r="N15">
-        <v>1.83247</v>
+        <v>2.243277</v>
       </c>
       <c r="O15">
-        <v>0.07066099945247915</v>
+        <v>0.07497631418703242</v>
       </c>
       <c r="P15">
-        <v>0.07066099945247914</v>
+        <v>0.07497631418703242</v>
       </c>
       <c r="Q15">
-        <v>0.01717472327111111</v>
+        <v>0.021024989056</v>
       </c>
       <c r="R15">
-        <v>0.15457250944</v>
+        <v>0.189224901504</v>
       </c>
       <c r="S15">
-        <v>0.0008176064252202619</v>
+        <v>0.0008294819941851496</v>
       </c>
       <c r="T15">
-        <v>0.0008176064252202618</v>
+        <v>0.0008294819941851499</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1414,40 +1414,40 @@
         <v>0.084352</v>
       </c>
       <c r="I16">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="J16">
-        <v>0.01157083018292315</v>
+        <v>0.01106325381794526</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.4118836666666666</v>
+        <v>0.5713116666666667</v>
       </c>
       <c r="N16">
-        <v>1.235651</v>
+        <v>1.713935</v>
       </c>
       <c r="O16">
-        <v>0.04764734736964606</v>
+        <v>0.05728428948192819</v>
       </c>
       <c r="P16">
-        <v>0.04764734736964606</v>
+        <v>0.05728428948192819</v>
       </c>
       <c r="Q16">
-        <v>0.01158107035022222</v>
+        <v>0.01606376056888889</v>
       </c>
       <c r="R16">
-        <v>0.104229633152</v>
+        <v>0.14457384512</v>
       </c>
       <c r="S16">
-        <v>0.0005513193650809246</v>
+        <v>0.0006337506343192234</v>
       </c>
       <c r="T16">
-        <v>0.0005513193650809246</v>
+        <v>0.0006337506343192235</v>
       </c>
     </row>
   </sheetData>
